--- a/mf-intelligence/data/separated_files/sbi/SBI Resurgent India Opportunities Scheme/SBI Resurgent India Opportunities Scheme_Jul_2025.xlsx
+++ b/mf-intelligence/data/separated_files/sbi/SBI Resurgent India Opportunities Scheme/SBI Resurgent India Opportunities Scheme_Jul_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1124 +436,867 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>Name of the Instrument / Issuer</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 1</t>
+          <t>ISIN</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Name of the Instrument / Issuer</t>
+          <t>Rating / Industry^</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ISIN</t>
+          <t>Quantity</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Rating / Industry^</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Market value
 (Rs. in Lakhs)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>% to AUM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>YTM %</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>YTC % ##</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Notes &amp; Symbols</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="n">
-        <v>100006</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HDFC Bank Ltd.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>INE040A01034</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HDFC Bank Ltd.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>INE040A01034</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
           <t>Banks</t>
         </is>
       </c>
+      <c r="D2" t="n">
+        <v>262250</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5292.73</v>
+      </c>
       <c r="F2" t="n">
-        <v>262250</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5292.73</v>
-      </c>
-      <c r="H2" t="n">
         <v>8.289999999999999</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="n">
-        <v>100660</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Hatsun Agro Product Ltd.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>INE473B01035</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Hatsun Agro Product Ltd.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>INE473B01035</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
           <t>Food Products</t>
         </is>
       </c>
+      <c r="D3" t="n">
+        <v>339745</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3111.38</v>
+      </c>
       <c r="F3" t="n">
-        <v>339745</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3111.38</v>
-      </c>
-      <c r="H3" t="n">
         <v>4.87</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="n">
-        <v>100095</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Bharti Airtel Ltd.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>INE397D01024</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Bharti Airtel Ltd.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>INE397D01024</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
           <t>Telecom - Services</t>
         </is>
       </c>
+      <c r="D4" t="n">
+        <v>148800</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2848.48</v>
+      </c>
       <c r="F4" t="n">
-        <v>148800</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2848.48</v>
-      </c>
-      <c r="H4" t="n">
         <v>4.46</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="n">
-        <v>100465</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Interglobe Aviation Ltd.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>INE646L01027</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Interglobe Aviation Ltd.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>INE646L01027</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
           <t>Transport Services</t>
         </is>
       </c>
+      <c r="D5" t="n">
+        <v>35100</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2074.59</v>
+      </c>
       <c r="F5" t="n">
-        <v>35100</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2074.59</v>
-      </c>
-      <c r="H5" t="n">
         <v>3.25</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="n">
-        <v>100104</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Kotak Mahindra Bank Ltd.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>INE237A01028</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Kotak Mahindra Bank Ltd.</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>INE237A01028</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
           <t>Banks</t>
         </is>
       </c>
+      <c r="D6" t="n">
+        <v>101000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1998.39</v>
+      </c>
       <c r="F6" t="n">
-        <v>101000</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1998.39</v>
-      </c>
-      <c r="H6" t="n">
         <v>3.13</v>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="n">
-        <v>100140</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Shree Cement Ltd.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>INE070A01015</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Shree Cement Ltd.</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>INE070A01015</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
           <t>Cement &amp; Cement Products</t>
         </is>
       </c>
+      <c r="D7" t="n">
+        <v>6400</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1971.84</v>
+      </c>
       <c r="F7" t="n">
-        <v>6400</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1971.84</v>
-      </c>
-      <c r="H7" t="n">
         <v>3.09</v>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="n">
-        <v>100653</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Deepak Fertilizers and Petrochemicals Corporation Ltd.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>INE501A01019</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Deepak Fertilizers and Petrochemicals Corporation Ltd.</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>INE501A01019</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
           <t>Chemicals &amp; Petrochemicals</t>
         </is>
       </c>
+      <c r="D8" t="n">
+        <v>123031</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1967.02</v>
+      </c>
       <c r="F8" t="n">
-        <v>123031</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1967.02</v>
-      </c>
-      <c r="H8" t="n">
         <v>3.08</v>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="n">
-        <v>100694</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Indian Energy Exchange Ltd.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>INE022Q01020</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Indian Energy Exchange Ltd.</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>INE022Q01020</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
           <t>Capital Markets</t>
         </is>
       </c>
+      <c r="D9" t="n">
+        <v>1445000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1955.09</v>
+      </c>
       <c r="F9" t="n">
-        <v>1445000</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1955.09</v>
-      </c>
-      <c r="H9" t="n">
         <v>3.06</v>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="n">
-        <v>100024</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Axis Bank Ltd.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>INE238A01034</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Axis Bank Ltd.</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>INE238A01034</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
           <t>Banks</t>
         </is>
       </c>
+      <c r="D10" t="n">
+        <v>181000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1933.8</v>
+      </c>
       <c r="F10" t="n">
-        <v>181000</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1933.8</v>
-      </c>
-      <c r="H10" t="n">
         <v>3.03</v>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="n">
-        <v>102519</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Sanathan Textiles Ltd.</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>INE0JPD01013</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sanathan Textiles Ltd.</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>INE0JPD01013</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
           <t>Textiles &amp; Apparels</t>
         </is>
       </c>
+      <c r="D11" t="n">
+        <v>340000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1747.09</v>
+      </c>
       <c r="F11" t="n">
-        <v>340000</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1747.09</v>
-      </c>
-      <c r="H11" t="n">
         <v>2.74</v>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="n">
-        <v>100814</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HDFC Asset Management Co. Ltd.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>INE127D01025</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>HDFC Asset Management Co. Ltd.</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>INE127D01025</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
           <t>Capital Markets</t>
         </is>
       </c>
+      <c r="D12" t="n">
+        <v>29000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1638.5</v>
+      </c>
       <c r="F12" t="n">
-        <v>29000</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1638.5</v>
-      </c>
-      <c r="H12" t="n">
         <v>2.57</v>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="n">
-        <v>100073</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CARE Ratings Ltd.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>INE752H01013</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CARE Ratings Ltd.</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>INE752H01013</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
           <t>Capital Markets</t>
         </is>
       </c>
+      <c r="D13" t="n">
+        <v>95500</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1620.35</v>
+      </c>
       <c r="F13" t="n">
-        <v>95500</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1620.35</v>
-      </c>
-      <c r="H13" t="n">
         <v>2.54</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="n">
-        <v>101313</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Eternal Ltd.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>INE758T01015</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Eternal Ltd.</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>INE758T01015</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
           <t>Retailing</t>
         </is>
       </c>
+      <c r="D14" t="n">
+        <v>520000</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1600.56</v>
+      </c>
       <c r="F14" t="n">
-        <v>520000</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1600.56</v>
-      </c>
-      <c r="H14" t="n">
         <v>2.51</v>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="n">
-        <v>101469</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Equitas Small Finance Bank Ltd.</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>INE063P01018</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Equitas Small Finance Bank Ltd.</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>INE063P01018</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
           <t>Banks</t>
         </is>
       </c>
+      <c r="D15" t="n">
+        <v>2697500</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1598.54</v>
+      </c>
       <c r="F15" t="n">
-        <v>2697500</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1598.54</v>
-      </c>
-      <c r="H15" t="n">
         <v>2.5</v>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
-      <c r="B16" t="n">
-        <v>100306</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Abbott India Ltd.</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>INE358A01014</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Abbott India Ltd.</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>INE358A01014</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
           <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
+      <c r="D16" t="n">
+        <v>4470</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1537.9</v>
+      </c>
       <c r="F16" t="n">
-        <v>4470</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1537.9</v>
-      </c>
-      <c r="H16" t="n">
         <v>2.41</v>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="n">
-        <v>100196</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Berger Paints India Ltd.</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>INE463A01038</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Berger Paints India Ltd.</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>INE463A01038</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
           <t>Consumer Durables</t>
         </is>
       </c>
+      <c r="D17" t="n">
+        <v>259000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1463.09</v>
+      </c>
       <c r="F17" t="n">
-        <v>259000</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1463.09</v>
-      </c>
-      <c r="H17" t="n">
         <v>2.29</v>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="n">
-        <v>100380</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Bajaj Finserv Ltd.</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>INE918I01026</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Bajaj Finserv Ltd.</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>INE918I01026</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
           <t>Finance</t>
         </is>
       </c>
+      <c r="D18" t="n">
+        <v>74000</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1441.52</v>
+      </c>
       <c r="F18" t="n">
-        <v>74000</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1441.52</v>
-      </c>
-      <c r="H18" t="n">
         <v>2.26</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
-      <c r="B19" t="n">
-        <v>100400</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Finolex Industries Ltd.</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>INE183A01024</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Finolex Industries Ltd.</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>INE183A01024</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
           <t>Industrial Products</t>
         </is>
       </c>
+      <c r="D19" t="n">
+        <v>682000</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1406.69</v>
+      </c>
       <c r="F19" t="n">
-        <v>682000</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1406.69</v>
-      </c>
-      <c r="H19" t="n">
         <v>2.2</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="n">
-        <v>100262</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ingersoll Rand (India) Ltd.</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>INE177A01018</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Ingersoll Rand (India) Ltd.</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>INE177A01018</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
           <t>Industrial Products</t>
         </is>
       </c>
+      <c r="D20" t="n">
+        <v>35594</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1375.28</v>
+      </c>
       <c r="F20" t="n">
-        <v>35594</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1375.28</v>
-      </c>
-      <c r="H20" t="n">
         <v>2.15</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="n">
-        <v>102629</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>National Securities Depository Ltd.</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>INE301O01023</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>National Securities Depository Ltd.</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>INE301O01023</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
           <t>Capital Markets</t>
         </is>
       </c>
+      <c r="D21" t="n">
+        <v>162504</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1300.03</v>
+      </c>
       <c r="F21" t="n">
-        <v>162504</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1300.03</v>
-      </c>
-      <c r="H21" t="n">
         <v>2.04</v>
       </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>A**</t>
-        </is>
-      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="n">
-        <v>102628</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Aditya Infotech Ltd.</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>INE819V01029</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Aditya Infotech Ltd.</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>INE819V01029</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
           <t>Consumer Durables</t>
         </is>
       </c>
+      <c r="D22" t="n">
+        <v>192588</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1299.97</v>
+      </c>
       <c r="F22" t="n">
-        <v>192588</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1299.97</v>
-      </c>
-      <c r="H22" t="n">
         <v>2.04</v>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>A**</t>
-        </is>
-      </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="n">
-        <v>100019</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ITC Ltd.</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>INE154A01025</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ITC Ltd.</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>INE154A01025</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
           <t>Diversified FMCG</t>
         </is>
       </c>
+      <c r="D23" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1235.85</v>
+      </c>
       <c r="F23" t="n">
-        <v>300000</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1235.85</v>
-      </c>
-      <c r="H23" t="n">
         <v>1.94</v>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="n">
-        <v>100106</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Maruti Suzuki India Ltd.</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>INE585B01010</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Maruti Suzuki India Ltd.</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>INE585B01010</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
           <t>Automobiles</t>
         </is>
       </c>
+      <c r="D24" t="n">
+        <v>9750</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1229.28</v>
+      </c>
       <c r="F24" t="n">
-        <v>9750</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1229.28</v>
-      </c>
-      <c r="H24" t="n">
         <v>1.93</v>
       </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="n">
-        <v>102184</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Brainbees Solutions Ltd.</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>INE02RE01045</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Brainbees Solutions Ltd.</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>INE02RE01045</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
           <t>Retailing</t>
         </is>
       </c>
+      <c r="D25" t="n">
+        <v>355000</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1218.89</v>
+      </c>
       <c r="F25" t="n">
-        <v>355000</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1218.89</v>
-      </c>
-      <c r="H25" t="n">
         <v>1.91</v>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="n">
-        <v>101958</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Sai Silks (Kalamandir) Ltd.</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>INE438K01021</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Sai Silks (Kalamandir) Ltd.</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>INE438K01021</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
           <t>Retailing</t>
         </is>
       </c>
+      <c r="D26" t="n">
+        <v>685000</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1218.68</v>
+      </c>
       <c r="F26" t="n">
-        <v>685000</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1218.68</v>
-      </c>
-      <c r="H26" t="n">
         <v>1.91</v>
       </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="n">
-        <v>100552</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ganesha Ecosphere Ltd.</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>INE845D01014</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Ganesha Ecosphere Ltd.</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>INE845D01014</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
           <t>Textiles &amp; Apparels</t>
         </is>
       </c>
+      <c r="D27" t="n">
+        <v>79418</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1179.28</v>
+      </c>
       <c r="F27" t="n">
-        <v>79418</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1179.28</v>
-      </c>
-      <c r="H27" t="n">
         <v>1.85</v>
       </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="n">
-        <v>101462</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Vedant Fashions Ltd.</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>INE825V01034</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Vedant Fashions Ltd.</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>INE825V01034</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
           <t>Retailing</t>
         </is>
       </c>
+      <c r="D28" t="n">
+        <v>157000</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1176.56</v>
+      </c>
       <c r="F28" t="n">
-        <v>157000</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1176.56</v>
-      </c>
-      <c r="H28" t="n">
         <v>1.84</v>
       </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="n">
-        <v>100770</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>H.G. Infra Engineering Ltd.</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>INE926X01010</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>H.G. Infra Engineering Ltd.</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>INE926X01010</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
           <t>Construction</t>
         </is>
       </c>
+      <c r="D29" t="n">
+        <v>110000</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1142.35</v>
+      </c>
       <c r="F29" t="n">
-        <v>110000</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1142.35</v>
-      </c>
-      <c r="H29" t="n">
         <v>1.79</v>
       </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="n">
-        <v>101686</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Jindal Stainless Ltd.</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>INE220G01021</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Jindal Stainless Ltd.</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>INE220G01021</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
           <t>Ferrous Metals</t>
         </is>
       </c>
+      <c r="D30" t="n">
+        <v>149229</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1035.8</v>
+      </c>
       <c r="F30" t="n">
-        <v>149229</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1035.8</v>
-      </c>
-      <c r="H30" t="n">
         <v>1.62</v>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="n">
-        <v>101102</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ESAB India Ltd.</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>INE284A01012</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ESAB India Ltd.</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>INE284A01012</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
           <t>Industrial Products</t>
         </is>
       </c>
+      <c r="D31" t="n">
+        <v>19090</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1017.21</v>
+      </c>
       <c r="F31" t="n">
-        <v>19090</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1017.21</v>
-      </c>
-      <c r="H31" t="n">
         <v>1.59</v>
       </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="n">
-        <v>101370</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Gokaldas Exports Ltd.</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>INE887G01027</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Gokaldas Exports Ltd.</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>INE887G01027</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
           <t>Textiles &amp; Apparels</t>
         </is>
       </c>
+      <c r="D32" t="n">
+        <v>102350</v>
+      </c>
+      <c r="E32" t="n">
+        <v>869.72</v>
+      </c>
       <c r="F32" t="n">
-        <v>102350</v>
-      </c>
-      <c r="G32" t="n">
-        <v>869.72</v>
-      </c>
-      <c r="H32" t="n">
         <v>1.36</v>
       </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
-      <c r="B33" t="n">
-        <v>101304</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Krishna Institute of Medical Sciences Ltd.</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>INE967H01025</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Krishna Institute of Medical Sciences Ltd.</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>INE967H01025</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
           <t>Healthcare Services</t>
         </is>
       </c>
+      <c r="D33" t="n">
+        <v>100763</v>
+      </c>
+      <c r="E33" t="n">
+        <v>756.9299999999999</v>
+      </c>
       <c r="F33" t="n">
-        <v>100763</v>
-      </c>
-      <c r="G33" t="n">
-        <v>756.9299999999999</v>
-      </c>
-      <c r="H33" t="n">
         <v>1.19</v>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
